--- a/app/webroot/img/Statement.xlsx
+++ b/app/webroot/img/Statement.xlsx
@@ -34,59 +34,59 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>Lot 4-5 Blk 3 Phase 2, Mountview Industrial Complex
+    <t xml:space="preserve">VAT REG TIN: 001-441-056-000   </t>
+  </si>
+  <si>
+    <t>STATEMENT OF ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLD TO : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS STYLE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIN : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDRESS : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMS : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL AMOUNT DUE : </t>
+  </si>
+  <si>
+    <t>PREPARED BY</t>
+  </si>
+  <si>
+    <t>APPROVED BY</t>
+  </si>
+  <si>
+    <t>RECEIVED BY</t>
+  </si>
+  <si>
+    <t>PRINT SIGN &amp; DATE</t>
+  </si>
+  <si>
+    <t>Page 1 of 1</t>
+  </si>
+  <si>
+    <t>----------End----------</t>
+  </si>
+  <si>
+    <t>Kou Fu Packaging Corporation</t>
+  </si>
+  <si>
+    <t>Lot 3-4 Blk 4 Mountview Industrial Complex 
 Bo.Bancal,Carmona,Cavite</t>
   </si>
   <si>
-    <t xml:space="preserve">VAT REG TIN: 001-441-056-000   </t>
-  </si>
-  <si>
-    <t>STATEMENT OF ACCOUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLD TO : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUSINESS STYLE : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIN : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADDRESS : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMS : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT DUE : </t>
-  </si>
-  <si>
-    <t>PREPARED BY</t>
-  </si>
-  <si>
-    <t>APPROVED BY</t>
-  </si>
-  <si>
-    <t>RECEIVED BY</t>
-  </si>
-  <si>
-    <t>PRINT SIGN &amp; DATE</t>
-  </si>
-  <si>
-    <t>KOU FU COLOR PRINTING CORPORATION</t>
-  </si>
-  <si>
-    <t>Bo. Bancal, Carmona, Cavite</t>
-  </si>
-  <si>
-    <t>Page 1 of 1</t>
-  </si>
-  <si>
-    <t>----------End----------</t>
+    <t>Brgy. Bancal Carmona Cavite</t>
   </si>
 </sst>
 </file>
@@ -495,10 +495,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,74 +585,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1102,93 +1102,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="A1" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A3" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="58" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:12" ht="55.5" customHeight="1">
+      <c r="A5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="43"/>
-    </row>
-    <row r="5" spans="1:12" ht="55.5" customHeight="1">
-      <c r="A5" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="29.25" customHeight="1">
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="44"/>
@@ -1197,15 +1197,15 @@
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="39"/>
@@ -1214,15 +1214,15 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="39"/>
@@ -1231,35 +1231,35 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+        <v>13</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="8.25" customHeight="1"/>
     <row r="11" spans="1:12" s="10" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="52" t="s">
+      <c r="G11" s="64"/>
+      <c r="H11" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="52" t="s">
+      <c r="I11" s="64"/>
+      <c r="J11" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="53"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1">
@@ -1268,28 +1268,28 @@
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
@@ -1298,12 +1298,12 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1">
@@ -1312,12 +1312,12 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
@@ -1537,13 +1537,13 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="108.75" customHeight="1" thickTop="1">
@@ -1561,23 +1561,23 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="62" t="s">
+      <c r="F33" s="66"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67"/>
       <c r="L33" s="24"/>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1">
@@ -1609,28 +1609,28 @@
       <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="71" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74" t="s">
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="29"/>
+    </row>
+    <row r="37" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="29"/>
-    </row>
-    <row r="37" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A37" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="77"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -1644,24 +1644,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A37:B37"/>
@@ -1678,6 +1660,24 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.1" right="0.196850393700787" top="0.75" bottom="0.43307086614173201" header="0.511811023622047" footer="0.47244094488188998"/>

--- a/app/webroot/img/Statement.xlsx
+++ b/app/webroot/img/Statement.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>P.O. NO.</t>
   </si>
@@ -87,6 +90,10 @@
   </si>
   <si>
     <t>Brgy. Bancal Carmona Cavite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITION OF SALES: It is understood that the merchandise herein described remains the property of KOU FU COLOR PRINTING CORP until the statement is paid. Our responsibility ceases when merchandise is delivered in good condition. Overdue payments on any part of this statement shall bear interest equal to twenty four (24%) percent per annum plus twenty five (25%) percent to cover cost of collection and attorney's fee. In case of litigation arising out of this statement, the parties submit themselves to the jurisdiction of the court of Carmona, Cavite   to the exclusion of all others.
+</t>
   </si>
 </sst>
 </file>
@@ -94,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$PHP]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -334,11 +341,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,12 +406,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -432,10 +433,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -444,10 +445,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,7 +496,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,10 +523,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +541,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,16 +565,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,14 +594,51 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -666,128 +710,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="Rectangle 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="161925" y="7581900"/>
-          <a:ext cx="7315200" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>CONDITION OF SALES: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>It is understood that the merchandise herein described remains the property of </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>KOU FU COLOR PRINTING CORP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="850" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>until the statement is paid. Our responsibility ceases when merchandise is delivered in good condition. Overdue payments on any part of this statement shall bear interest equal to twenty four (24%) percent per annum plus twenty five (25%) percent to cover cost of collection and attorney's fee. In case of litigation arising out of this statement, the parties submit themselves to the jurisdiction of the court of </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="850" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Carmona, Cavite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>   to the exclusion of all others.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1080,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1163,7 +1085,7 @@
       <c r="I4" s="80"/>
       <c r="J4" s="80"/>
       <c r="K4" s="80"/>
-      <c r="L4" s="43"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="55.5" customHeight="1">
       <c r="A5" s="81" t="s">
@@ -1191,11 +1113,11 @@
         <v>8</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1208,11 +1130,11 @@
         <v>10</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1225,11 +1147,11 @@
         <v>12</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1260,219 +1182,219 @@
         <v>5</v>
       </c>
       <c r="K11" s="64"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="57"/>
       <c r="G12" s="58"/>
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="59"/>
       <c r="K12" s="60"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="61"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="32"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="61"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="32"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="61"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="32"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="8.25" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="8.25" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="8.25" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="8.25" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="4.5" customHeight="1">
       <c r="A27" s="17"/>
@@ -1480,12 +1402,12 @@
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="47"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="4.5" customHeight="1">
@@ -1499,7 +1421,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="4.5" customHeight="1">
@@ -1513,10 +1435,10 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="48"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="4.5" customHeight="1">
+    <row r="30" spans="1:12" ht="4.5" hidden="1" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1527,7 +1449,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
-      <c r="K30" s="48"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
@@ -1536,117 +1458,131 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
       <c r="K31" s="74"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="108.75" customHeight="1" thickTop="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+    <row r="32" spans="1:12" ht="3" customHeight="1" thickTop="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A33" s="65" t="s">
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="108.75" customHeight="1">
+      <c r="A33" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="65" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="65" t="s">
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-    </row>
-    <row r="36" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="68" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="18" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" ht="30.75" customHeight="1">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="54" t="s">
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="29"/>
-    </row>
-    <row r="37" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A37" s="77" t="s">
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A38" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="28"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A37:B37"/>
+  <mergeCells count="35">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:K4"/>
@@ -1656,21 +1592,18 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="J14:K14"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
@@ -1678,6 +1611,12 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.1" right="0.196850393700787" top="0.75" bottom="0.43307086614173201" header="0.511811023622047" footer="0.47244094488188998"/>
